--- a/test-suite/111_PEM_Test Harness_TestPack_301122.xlsx
+++ b/test-suite/111_PEM_Test Harness_TestPack_301122.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianclay/Projects/NHSDigital/integration-adaptor-111/test-suite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EAD690-DF24-C346-B9AD-360B1EB7AC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Valid Scenarios" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Test Harness Commentary" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Patient Referred to Primary Car" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Patient sent to A&amp;E" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Ambulance Input" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Safeguarding Referral" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Structured FHIR Messages" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Primary Care Referral_Two Locat" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Patient with no NHS Number" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Certificates" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Valid Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Harness Commentary" sheetId="2" r:id="rId2"/>
+    <sheet name="Patient Referred to Primary Car" sheetId="3" r:id="rId3"/>
+    <sheet name="Patient sent to A&amp;E" sheetId="4" r:id="rId4"/>
+    <sheet name="Ambulance Input" sheetId="5" r:id="rId5"/>
+    <sheet name="Safeguarding Referral" sheetId="6" r:id="rId6"/>
+    <sheet name="Structured FHIR Messages" sheetId="7" r:id="rId7"/>
+    <sheet name="Primary Care Referral_Two Locat" sheetId="8" r:id="rId8"/>
+    <sheet name="Patient with no NHS Number" sheetId="9" r:id="rId9"/>
+    <sheet name="Certificates" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,18 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="250">
-  <si>
-    <t xml:space="preserve">Scenarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Report (Referral – For Action) indicating that a call has resulted in the patient being referred to Primary Care for assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.g. Dx001 - Call referred to Primary Care (this GP Practice) for further assessment - should result in the receiver taking appropriate action</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="250">
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>111 Report (Referral – For Action) indicating that a call has resulted in the patient being referred to Primary Care for assessment</t>
+  </si>
+  <si>
+    <t>e.g. Dx001 - Call referred to Primary Care (this GP Practice) for further assessment - should result in the receiver taking appropriate action</t>
   </si>
   <si>
     <r>
@@ -51,7 +56,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Interaction type will be “</t>
+      <t>Interaction type will be “</t>
     </r>
     <r>
       <rPr>
@@ -61,7 +66,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">urn:nhs-itk:interaction:primaryGeneralPractitionerRecipientNHS111CDADocument-v2-0”.  </t>
+      <t>urn:nhs-itk:interaction:primaryGeneralPractitionerRecipientNHS111CDADocument-v2-0”.  </t>
     </r>
     <r>
       <rPr>
@@ -71,7 +76,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">This is the interaction </t>
+      <t>This is the interaction </t>
     </r>
   </si>
   <si>
@@ -83,19 +88,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">There </t>
+      <t>There </t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <u val="single"/>
+        <i/>
+        <u/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">may</t>
+      <t>may</t>
     </r>
     <r>
       <rPr>
@@ -105,305 +110,305 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> also be an appointment for the patient in the GP system</t>
+      <t> also be an appointment for the patient in the GP system</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">You could create a few different ITK examples for this varying the Dx Codes.  A good set (it can vary by region) is as follows:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To contact a Primary Care Service within 2 hours(DX05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To contact a Primary Care Service within 6 hours(DX06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To contact a Primary Care Service within 12 hours(DX07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To contact a Primary Care Service within 24 hours(DX08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For persistent or recurrent symptoms: get in touch with the GP Practice for a non-urgent appointment(DX09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUST contact own GP Practice for a non-urgent appointment(DX10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to a Primary Care Service within 1 hour(DX11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to a Primary Care Service within 1 hour possible Viral Haemorrhagic Fever(DX1111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Own GP Practice next working day for appointment(DX115)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to the Primary Care Service within 6 hours for Expected Death(DX116)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to a Primary Care Service within 1 hour for Palliative Care services(DX117)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callback by Healthcare Professional within 2 hours(DX119)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to a Primary Care Service within 2 hours(DX12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callback by Healthcare Professional within 4 hours(DX120)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact for a possible home visit within 6 hours(DX122)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact for a possible home visit within 2 hours(DX123)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to a Primary Care Service within 6 hours(DX13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to a Primary Care Service within 12 hours(DX14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to a Primary Care Service within 24 hours(DX15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For persistent or recurrent symptoms: get in touch with the GP Practice within 3 working days(DX16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Genito-Urinary Clinic(DX31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Location Information(DX45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to the Primary Care Service 2 hours for antiviral assessment(DX64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attend Flu Treatment Centre and Contact Primary Care within 2hrs(DX65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attend Flu Treatment Centre and Contact Primary Care within 6hrs(DX66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attend Flu Treatment Centre and Contact Primary Care within 24hrs(DX67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attend Flu treatment centre(DX68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to GP Practice within 2hrs before obtaining anti virals from FTC(DX69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUST contact own GP Practice within 3 working days(DX75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callback by Healthcare Professional within 30 minutes(DX76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callback by Healthcare Professional within 60 minutes(DX77)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receive report of results or tests from laboratory(DX78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Own GP Practice next working day(DX81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak to the GP Practice within 1 hour (3 calls within 4 days)(DX93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Contraception within 2 hours(DX97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Contraception within 12 hours(DX98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available for direct lookup(DXnull)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note branches are on DOS as separate services from the main surgery location.  Now during pandemic nearly all branches closed and the main surgery was for telephone triage first. So for these reasons branches on DOS are moot at the moment. But that may change. Patients still sometimes don’t know they are at a branch so the services are available on Dos even if the patient for all intents and purposes is referred into a front end triage list across the whole Practice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But here is an example so you get the point:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.florenceandbramleyroadsurgeries.nhs.uk/appointments/opening-times/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two locations – Florence Road main surgery and Bramley Road branch.  Bramley Road is shut for face to face for now. But may reopen soon.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are two services on DOS for these. (Note Bramley is closed for now but like I said could reopen soon).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To cope with two services for referrals the 111 Adaptor needs to be configured to accept 111 Report messages sent to both the service IDs listed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You will want to test that scenario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Report (PEM – For Information) indicating that a call resulted in the patient being sent to A&amp;E </t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.g. Dx02 - Attend Emergency Treatment Centre within 1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Report (PEM - For Information) indicating that the call resulted in an ambulance request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.g. Dx0106 - Emergency Ambulance Response for Respiratory Distress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Report (PEM) indicating that the call resulted in child safeguarding referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dx42 - Child protection / Vulnerable adult immediate referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think this will go as a PEM – but I will need to speak to Pathways/111 providers as to what happens with them.  It might be they are all validated first… unsure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Report (PEM) containing the correct sections and headings – GP Supplier displays correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All CDA documents MUST contain the following items only in the order presented, using the titles shown here, and appropriate text </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. Patient’s Reported Condition;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b. Pathways Disposition (this should include selected service);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c. Consultation Summary;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d. Pathways Assessment;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e. Advice Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ other sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They all do – but it is in the text section and all the examples I provide will have them.  Note Cleric is an exception that they do it like this:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient’s Reported Condition;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathways Disposition (this should include selected service);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation Summary;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathways Assessment;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advice Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Report (Referral) for patient not registered with this GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.g. an NHS 111 ‘copy to’ or an NHS 111 ‘Referral’ message could go to a GP practice where the patient is not registered because the GP practice recorded on PDS and NHAIS are not aligned </t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Report (PEM – for information) for patient not registered with this GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid scenario – the GP Practice is hosting a GP Access Hub (extended hours)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Report (Referral) for patient with no NHS number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.g. an NHS 111 referral message (but not a ‘copy to’ message) could be sent to a GP practice treating patients who do not necessarily have an NHS number e.g. GP Practices in holiday areas act as a sort of urgent treatment service for non-registered patients (who don’t have their NHS number to hand) or in rural places where they do urgent care work for the homeless (who do not have an NHS number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIA Team JIRA Refs and Commentary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIAD-2079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dx001 - Call referred to Primary Care for further assessment 
+    <t>You could create a few different ITK examples for this varying the Dx Codes.  A good set (it can vary by region) is as follows:</t>
+  </si>
+  <si>
+    <t>To contact a Primary Care Service within 2 hours(DX05)</t>
+  </si>
+  <si>
+    <t>To contact a Primary Care Service within 6 hours(DX06)</t>
+  </si>
+  <si>
+    <t>To contact a Primary Care Service within 12 hours(DX07)</t>
+  </si>
+  <si>
+    <t>To contact a Primary Care Service within 24 hours(DX08)</t>
+  </si>
+  <si>
+    <t>For persistent or recurrent symptoms: get in touch with the GP Practice for a non-urgent appointment(DX09)</t>
+  </si>
+  <si>
+    <t>MUST contact own GP Practice for a non-urgent appointment(DX10)</t>
+  </si>
+  <si>
+    <t>Speak to a Primary Care Service within 1 hour(DX11)</t>
+  </si>
+  <si>
+    <t>Speak to a Primary Care Service within 1 hour possible Viral Haemorrhagic Fever(DX1111)</t>
+  </si>
+  <si>
+    <t>Contact Own GP Practice next working day for appointment(DX115)</t>
+  </si>
+  <si>
+    <t>Speak to the Primary Care Service within 6 hours for Expected Death(DX116)</t>
+  </si>
+  <si>
+    <t>Speak to a Primary Care Service within 1 hour for Palliative Care services(DX117)</t>
+  </si>
+  <si>
+    <t>Callback by Healthcare Professional within 2 hours(DX119)</t>
+  </si>
+  <si>
+    <t>Speak to a Primary Care Service within 2 hours(DX12)</t>
+  </si>
+  <si>
+    <t>Callback by Healthcare Professional within 4 hours(DX120)</t>
+  </si>
+  <si>
+    <t>Contact for a possible home visit within 6 hours(DX122)</t>
+  </si>
+  <si>
+    <t>Contact for a possible home visit within 2 hours(DX123)</t>
+  </si>
+  <si>
+    <t>Speak to a Primary Care Service within 6 hours(DX13)</t>
+  </si>
+  <si>
+    <t>Speak to a Primary Care Service within 12 hours(DX14)</t>
+  </si>
+  <si>
+    <t>Speak to a Primary Care Service within 24 hours(DX15)</t>
+  </si>
+  <si>
+    <t>For persistent or recurrent symptoms: get in touch with the GP Practice within 3 working days(DX16)</t>
+  </si>
+  <si>
+    <t>Contact Genito-Urinary Clinic(DX31)</t>
+  </si>
+  <si>
+    <t>Service Location Information(DX45)</t>
+  </si>
+  <si>
+    <t>Speak to the Primary Care Service 2 hours for antiviral assessment(DX64)</t>
+  </si>
+  <si>
+    <t>Attend Flu Treatment Centre and Contact Primary Care within 2hrs(DX65)</t>
+  </si>
+  <si>
+    <t>Attend Flu Treatment Centre and Contact Primary Care within 6hrs(DX66)</t>
+  </si>
+  <si>
+    <t>Attend Flu Treatment Centre and Contact Primary Care within 24hrs(DX67)</t>
+  </si>
+  <si>
+    <t>Attend Flu treatment centre(DX68)</t>
+  </si>
+  <si>
+    <t>Speak to GP Practice within 2hrs before obtaining anti virals from FTC(DX69)</t>
+  </si>
+  <si>
+    <t>MUST contact own GP Practice within 3 working days(DX75)</t>
+  </si>
+  <si>
+    <t>Callback by Healthcare Professional within 30 minutes(DX76)</t>
+  </si>
+  <si>
+    <t>Callback by Healthcare Professional within 60 minutes(DX77)</t>
+  </si>
+  <si>
+    <t>Receive report of results or tests from laboratory(DX78)</t>
+  </si>
+  <si>
+    <t>Contact Own GP Practice next working day(DX81)</t>
+  </si>
+  <si>
+    <t>Speak to the GP Practice within 1 hour (3 calls within 4 days)(DX93)</t>
+  </si>
+  <si>
+    <t>Emergency Contraception within 2 hours(DX97)</t>
+  </si>
+  <si>
+    <t>Emergency Contraception within 12 hours(DX98)</t>
+  </si>
+  <si>
+    <t>Available for direct lookup(DXnull)</t>
+  </si>
+  <si>
+    <t>Note branches are on DOS as separate services from the main surgery location.  Now during pandemic nearly all branches closed and the main surgery was for telephone triage first. So for these reasons branches on DOS are moot at the moment. But that may change. Patients still sometimes don’t know they are at a branch so the services are available on Dos even if the patient for all intents and purposes is referred into a front end triage list across the whole Practice.</t>
+  </si>
+  <si>
+    <t>But here is an example so you get the point:</t>
+  </si>
+  <si>
+    <t>https://www.florenceandbramleyroadsurgeries.nhs.uk/appointments/opening-times/</t>
+  </si>
+  <si>
+    <t>Two locations – Florence Road main surgery and Bramley Road branch.  Bramley Road is shut for face to face for now. But may reopen soon.  </t>
+  </si>
+  <si>
+    <t>There are two services on DOS for these. (Note Bramley is closed for now but like I said could reopen soon).</t>
+  </si>
+  <si>
+    <t>To cope with two services for referrals the 111 Adaptor needs to be configured to accept 111 Report messages sent to both the service IDs listed.</t>
+  </si>
+  <si>
+    <t>You will want to test that scenario.</t>
+  </si>
+  <si>
+    <t>111 Report (PEM – For Information) indicating that a call resulted in the patient being sent to A&amp;E </t>
+  </si>
+  <si>
+    <t>e.g. Dx02 - Attend Emergency Treatment Centre within 1 hour</t>
+  </si>
+  <si>
+    <t>111 Report (PEM - For Information) indicating that the call resulted in an ambulance request</t>
+  </si>
+  <si>
+    <t>e.g. Dx0106 - Emergency Ambulance Response for Respiratory Distress</t>
+  </si>
+  <si>
+    <t>111 Report (PEM) indicating that the call resulted in child safeguarding referral</t>
+  </si>
+  <si>
+    <t>Dx42 - Child protection / Vulnerable adult immediate referral</t>
+  </si>
+  <si>
+    <t>I think this will go as a PEM – but I will need to speak to Pathways/111 providers as to what happens with them.  It might be they are all validated first… unsure.</t>
+  </si>
+  <si>
+    <t>111 Report (PEM) containing the correct sections and headings – GP Supplier displays correctly</t>
+  </si>
+  <si>
+    <t>All CDA documents MUST contain the following items only in the order presented, using the titles shown here, and appropriate text </t>
+  </si>
+  <si>
+    <t>a. Patient’s Reported Condition;</t>
+  </si>
+  <si>
+    <t>b. Pathways Disposition (this should include selected service);</t>
+  </si>
+  <si>
+    <t>c. Consultation Summary;</t>
+  </si>
+  <si>
+    <t>d. Pathways Assessment;</t>
+  </si>
+  <si>
+    <t>e. Advice Given</t>
+  </si>
+  <si>
+    <t>+ other sections</t>
+  </si>
+  <si>
+    <t>They all do – but it is in the text section and all the examples I provide will have them.  Note Cleric is an exception that they do it like this:</t>
+  </si>
+  <si>
+    <t>Patient’s Reported Condition;</t>
+  </si>
+  <si>
+    <t>Case summary</t>
+  </si>
+  <si>
+    <t>Pathways Disposition (this should include selected service);</t>
+  </si>
+  <si>
+    <t>Consultation Summary;</t>
+  </si>
+  <si>
+    <t>Pathways Assessment;</t>
+  </si>
+  <si>
+    <t>Advice Given</t>
+  </si>
+  <si>
+    <t>111 Report (Referral) for patient not registered with this GP</t>
+  </si>
+  <si>
+    <t>e.g. an NHS 111 ‘copy to’ or an NHS 111 ‘Referral’ message could go to a GP practice where the patient is not registered because the GP practice recorded on PDS and NHAIS are not aligned </t>
+  </si>
+  <si>
+    <t>111 Report (PEM – for information) for patient not registered with this GP</t>
+  </si>
+  <si>
+    <t>Valid scenario – the GP Practice is hosting a GP Access Hub (extended hours)</t>
+  </si>
+  <si>
+    <t>111 Report (Referral) for patient with no NHS number </t>
+  </si>
+  <si>
+    <t>e.g. an NHS 111 referral message (but not a ‘copy to’ message) could be sent to a GP practice treating patients who do not necessarily have an NHS number e.g. GP Practices in holiday areas act as a sort of urgent treatment service for non-registered patients (who don’t have their NHS number to hand) or in rural places where they do urgent care work for the homeless (who do not have an NHS number)</t>
+  </si>
+  <si>
+    <t>NIA Team JIRA Refs and Commentary</t>
+  </si>
+  <si>
+    <t>NIAD-2079</t>
+  </si>
+  <si>
+    <t>Dx001 - Call referred to Primary Care for further assessment 
 DX122 - Contact for a possible home visit within 6 hours
 DX77 - Callback by Healthcare Professional within 60 minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">NIAD-2120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DX77 - Callback by Healthcare Professional within 60 minutes
+    <t>NIAD-2120</t>
+  </si>
+  <si>
+    <t>DX77 - Callback by Healthcare Professional within 60 minutes
 DX117 - Speak to a Primary Care Service within 1 hour for Palliative Care services</t>
   </si>
   <si>
-    <t xml:space="preserve">NIAD-2121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dx02 - Attend Emergency Treatment Centre within 1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIAD-2122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dx0106 - Emergency Ambulance Response for Respiratory Distress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIAD-2124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIAD-2126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIAD-2127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Included in NIAD-2127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIAD-2128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JIRA ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass / Failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dx001 - Call referred to Primary Care (this GP Practice) for further assessment - should result in the receiver taking appropriate action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>NIAD-2121</t>
+  </si>
+  <si>
+    <t>Dx02 - Attend Emergency Treatment Centre within 1 hour</t>
+  </si>
+  <si>
+    <t>NIAD-2122</t>
+  </si>
+  <si>
+    <t>Dx0106 - Emergency Ambulance Response for Respiratory Distress</t>
+  </si>
+  <si>
+    <t>NIAD-2124</t>
+  </si>
+  <si>
+    <t>NIAD-2126</t>
+  </si>
+  <si>
+    <t>NIAD-2127</t>
+  </si>
+  <si>
+    <t>Included in NIAD-2127</t>
+  </si>
+  <si>
+    <t>NIAD-2128</t>
+  </si>
+  <si>
+    <t>JIRA ID</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Outcome</t>
+  </si>
+  <si>
+    <t>Actual Outcome</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Pass / Failed</t>
+  </si>
+  <si>
+    <t>Dx001 - Call referred to Primary Care (this GP Practice) for further assessment - should result in the receiver taking appropriate action</t>
+  </si>
+  <si>
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is Dx001
 THEN supplier can submit form</t>
@@ -426,23 +431,23 @@
 Disposition Text: Call referred to Primary Care for further assessment </t>
   </si>
   <si>
-    <t xml:space="preserve">API Status: 200
+    <t>API Status: 200
 Adaptor Status: 200</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to Test Harness Commentary tab for additional information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DX122 - Contact for a possible home visit within 6 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>Refer to Test Harness Commentary tab for additional information</t>
+  </si>
+  <si>
+    <t>DX122 - Contact for a possible home visit within 6 hours</t>
+  </si>
+  <si>
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX112
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -459,16 +464,16 @@
 Disposition Text: Contact for a possible home visit within 6 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">DX77 - Callback by Healthcare Professional within 60 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>DX77 - Callback by Healthcare Professional within 60 minutes</t>
+  </si>
+  <si>
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX77
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -485,16 +490,16 @@
 Disposition Text: Callback by Healthcare Professional within 60 minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">DX117 - Speak to a Primary Care Service within 1 hour for Palliative Care services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>DX117 - Speak to a Primary Care Service within 1 hour for Palliative Care services</t>
+  </si>
+  <si>
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX117
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -511,13 +516,13 @@
 Disposition Text: Speak to a Primary Care Service within 1 hour for Palliative Care services</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX05
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -534,13 +539,13 @@
 Disposition Text: To contact a Primary Care Service within 2 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX06
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -557,13 +562,13 @@
 Disposition Text: To contact a Primary Care Service within 6 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX07
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -580,13 +585,13 @@
 Disposition Text: To contact a Primary Care Service within 12 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX08
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -603,13 +608,13 @@
 Disposition Text: To contact a Primary Care Service within 24 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX09
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -626,13 +631,13 @@
 Disposition Text: For persistent or recurrent symptoms: get in touch with the GP Practice for a non-urgent appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX10
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -649,13 +654,13 @@
 Disposition Text: MUST contact own GP Practice for a non-urgent appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX11
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -672,13 +677,13 @@
 Disposition Text: Speak to a Primary Care Service within 1 hour</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX1111
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -695,13 +700,13 @@
 Disposition Text: Speak to a Primary Care Service within 1 hour possible Viral Haemorrhagic Fever</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX115
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -718,13 +723,13 @@
 Disposition Text: Contact Own GP Practice next working day for appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX116
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -741,13 +746,13 @@
 Disposition Text: Speak to the Primary Care Service within 6 hours for Expected Death</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX119
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -764,13 +769,13 @@
 Disposition Text: Callback by Healthcare Professional within 2 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX12
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -787,13 +792,13 @@
 Disposition Text: Speak to a Primary Care Service within 2 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX120
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -810,19 +815,19 @@
 Disposition Text: Callback by Healthcare Professional within 4 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX122
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX123
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -839,13 +844,13 @@
 Disposition Text: Contact for a possible home visit within 2 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX13
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -862,13 +867,13 @@
 Disposition Text: Speak to a Primary Care Service within 6 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX14
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -885,13 +890,13 @@
 Disposition Text: Speak to a Primary Care Service within 12 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX15
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -908,13 +913,13 @@
 Disposition Text: Speak to a Primary Care Service within 24 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX16
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -931,13 +936,13 @@
 Disposition Text: For persistent or recurrent symptoms: get in touch with the GP Practice within 3 working days</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX31
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -954,13 +959,13 @@
 Disposition Text: Contact Genito-Urinary Clinic</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX45
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -977,13 +982,13 @@
 Disposition Text: Service Location Information</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX64
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1000,13 +1005,13 @@
 Disposition Text: Speak to the Primary Care Service 2 hours for antiviral assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX65
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1023,13 +1028,13 @@
 Disposition Text: Attend Flu Treatment Centre and Contact Primary Care within 2hrs</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX66
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1046,13 +1051,13 @@
 Disposition Text: Attend Flu Treatment Centre and Contact Primary Care within 6hrs</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX67
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1069,13 +1074,13 @@
 Disposition Text: Attend Flu Treatment Centre and Contact Primary Care within 24hrs</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX68
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1092,13 +1097,13 @@
 Disposition Text: Attend Flu treatment centre</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX69
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1115,13 +1120,13 @@
 Disposition Text: Speak to GP Practice within 2hrs before obtaining anti virals from FTC</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX75
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1138,13 +1143,13 @@
 Disposition Text: MUST contact own GP Practice within 3 working days</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX76
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1161,13 +1166,13 @@
 Disposition Text: Callback by Healthcare Professional within 30 minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX78
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1184,13 +1189,13 @@
 Disposition Text: Receive report of results or tests from laborator</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX81
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1207,13 +1212,13 @@
 Disposition Text: Contact Own GP Practice next working day</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX93
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1230,13 +1235,13 @@
 Disposition Text: Speak to the GP Practice within 1 hour (3 calls within 4 days</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX97
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1253,13 +1258,13 @@
 Disposition Text: Emergency Contraception within 2 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is DX98
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1276,13 +1281,13 @@
 Disposition Text: Emergency Contraception within 12 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 AND Disposition Code is Dxnull
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1299,12 +1304,12 @@
 Disposition Text: Available for direct lookup</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 THEN supplier can submit form</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1319,16 +1324,16 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">ODS Code is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIVEN supplier has the Test Harness running
+    <t>ODS Code is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>GIVEN supplier has the Test Harness running
 WHEN supplier has added relevant information from Test Data
 THEN supplier can submit form
 And Validation and failure message appear</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: (Blank)
 DOC Code: 26428
@@ -1343,16 +1348,16 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">Validation message appears
+    <t>Validation message appears
 +
 API Status: 500 or other failure code (not 200)
 Adaptor Status: 500 or other failure code (not 200)</t>
   </si>
   <si>
-    <t xml:space="preserve">NHS Number is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>NHS Number is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1367,10 +1372,10 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">Recipient Name is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Recipient Name is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1385,10 +1390,10 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">Recipient Address Line 1 is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Recipient Address Line 1 is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1403,10 +1408,10 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">Recipient Address Line 2 is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Recipient Address Line 2 is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1421,10 +1426,10 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">Recipient Town is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Recipient Town is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1439,10 +1444,10 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">Recipient City is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Recipient City is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1457,10 +1462,10 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">Recipient Postcode is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Recipient Postcode is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1475,10 +1480,10 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter Start Datetime is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Encounter Start Datetime is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1493,10 +1498,10 @@
 Encounter End Datetime: 2022010613</t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter End Datetime is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Encounter End Datetime is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1511,7 +1516,7 @@
 Encounter End Datetime: (Blank)</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1563,7 +1568,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1573,7 +1578,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DOS Code is Empty – form will fail</t>
+    <t>DOS Code is Empty – form will fail</t>
   </si>
   <si>
     <r>
@@ -1625,7 +1630,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1665,7 +1670,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1705,7 +1710,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1745,7 +1750,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1785,7 +1790,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1825,7 +1830,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1865,7 +1870,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1905,7 +1910,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1945,7 +1950,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Reported Conditions: TEST CONDITION
+      <t>Reported Conditions: TEST CONDITION
 Pathways Disposition: TEST DISPOSITION
 Selected Service: TEST SERVICE
 Consultation Summary: TEST SUMMARY
@@ -1955,10 +1960,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Reported Conditions is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Reported Conditions is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -1980,10 +1985,10 @@
 Special Patient Notes: TEST NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Pathways Disposition is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Pathways Disposition is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -2005,10 +2010,10 @@
 Special Patient Notes: TEST NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Selected Service is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Selected Service is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -2030,10 +2035,10 @@
 Special Patient Notes: TEST NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation Summary is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Consultation Summary is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -2055,10 +2060,10 @@
 Special Patient Notes: TEST NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Pathways Assessment is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Pathways Assessment is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -2080,10 +2085,10 @@
 Special Patient Notes: TEST NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Advice Given is Empty – form will fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>Advice Given is Empty – form will fail</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -2105,7 +2110,7 @@
 Special Patient Notes: TEST NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 ODS Code: EM396
 DOC Code: 26428
@@ -2127,11 +2132,11 @@
 Special Patient Notes: (Blank)</t>
   </si>
   <si>
-    <t xml:space="preserve">111 Report (Referral) for patient not registered with this GP
+    <t>111 Report (Referral) for patient not registered with this GP
 111 Report (PEM – for information) for patient not registered with this GP</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2156,7 +2161,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: (Blank)
 Recipient DOS Code: 159744
@@ -2181,7 +2186,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2206,7 +2211,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2231,7 +2236,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2256,7 +2261,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2281,7 +2286,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2306,7 +2311,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2331,7 +2336,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2356,7 +2361,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2381,7 +2386,7 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">URL: http://localhost:8081/report
+    <t>URL: http://localhost:8081/report
 Content Type: application/xml
 Recipient ODS Code: E88122002
 Recipient DOS Code: 159744
@@ -2406,18 +2411,18 @@
 Disposition Text: TEST TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">NIAD-2078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 Report – Certificates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIVEN supplier has 111 Test Harness running
+    <t>NIAD-2078</t>
+  </si>
+  <si>
+    <t>111 Report – Certificates</t>
+  </si>
+  <si>
+    <t>GIVEN supplier has 111 Test Harness running
 WHEN supplier uploads certificates to Set Globals sections
 THEN required certificates to successful run the tests should be requested and stored locally.</t>
   </si>
   <si>
-    <t xml:space="preserve">0. Make sure supplier has downloaded certificates.zip and unzipped files
+    <t>0. Make sure supplier has downloaded certificates.zip and unzipped files
 1. Upload required certificates into set globals
 2. Fill out and Submit a form in any section from within the test harness webpage</t>
   </si>
@@ -2425,11 +2430,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2438,22 +2440,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2475,8 +2462,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <u val="single"/>
+      <i/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2491,7 +2478,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -2509,14 +2496,12 @@
       <sz val="11"/>
       <color rgb="FF201F1E"/>
       <name val="Inherit"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2527,7 +2512,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2535,7 +2520,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2600,273 +2585,184 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2925,13 +2821,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2945,9 +2857,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="x_Picture 10"/>
+        <xdr:cNvPr id="2" name="x_Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2964,9 +2882,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2987,11 +2911,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="x_Picture 11" descr=""/>
+        <xdr:cNvPr id="3" name="x_Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3022,9 +2952,15 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="x_Picture 10"/>
+        <xdr:cNvPr id="4" name="x_Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3041,9 +2977,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3062,9 +3004,15 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="x_Picture 10"/>
+        <xdr:cNvPr id="5" name="x_Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3081,9 +3029,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3104,11 +3058,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 5" descr=""/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3130,7 +3090,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3144,9 +3104,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="x_Picture 10"/>
+        <xdr:cNvPr id="5" name="x_Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3163,9 +3129,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3186,11 +3158,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="x_Picture 11" descr=""/>
+        <xdr:cNvPr id="6" name="x_Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3221,9 +3199,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="x_Picture 10"/>
+        <xdr:cNvPr id="7" name="x_Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3240,9 +3224,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3261,9 +3251,15 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="x_Picture 10"/>
+        <xdr:cNvPr id="8" name="x_Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3280,9 +3276,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3303,11 +3305,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 5" descr=""/>
+        <xdr:cNvPr id="9" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3328,675 +3336,979 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+    <sheetView topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="119.66"/>
+    <col min="1" max="1" width="38.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="119.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="11" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="11" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="11" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5"/>
-      <c r="B39" s="11" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="11" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
-      <c r="B41" s="11" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
-      <c r="B42" s="11" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
-      <c r="B43" s="11" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5"/>
-      <c r="B45" s="11" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
-      <c r="B46" s="11" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5"/>
-      <c r="B47" s="11" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5"/>
-      <c r="B48" s="12" t="s">
+    <row r="48" spans="1:2" ht="68">
+      <c r="A48" s="6"/>
+      <c r="B48" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5"/>
-      <c r="B50" s="7" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
-      <c r="B52" s="13" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
-      <c r="B54" s="7" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
-      <c r="B56" s="7" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6"/>
+      <c r="B56" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5"/>
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5"/>
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5"/>
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5"/>
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5"/>
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5"/>
-      <c r="B68" s="7"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5"/>
-      <c r="B70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5"/>
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5"/>
-      <c r="B72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5"/>
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5"/>
-      <c r="B74" s="7" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="6"/>
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="11"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5"/>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5"/>
-      <c r="B77" s="14"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="1:2" ht="15" customHeight="1">
+      <c r="A78" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
+    <row r="79" spans="1:2" ht="33.5" customHeight="1">
+      <c r="A79" s="5"/>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:2" ht="15" customHeight="1">
+      <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="15" t="s">
+    <row r="81" spans="1:2" ht="52.25" customHeight="1">
+      <c r="A81" s="5"/>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" customHeight="1">
+      <c r="A82" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15"/>
-      <c r="B83" s="7"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15"/>
-      <c r="B84" s="17" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15"/>
-      <c r="B85" s="14"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="18"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" customHeight="1">
+      <c r="A86" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15"/>
-      <c r="B87" s="7" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="15"/>
-      <c r="B88" s="7" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="15"/>
-      <c r="B89" s="7" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15"/>
-      <c r="B90" s="7" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15"/>
-      <c r="B91" s="7" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="15"/>
-      <c r="B92" s="17" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15"/>
-      <c r="B93" s="17"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="15"/>
-      <c r="B94" s="17" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="19"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="15"/>
-      <c r="B95" s="7" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="15"/>
-      <c r="B96" s="7" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="5"/>
+      <c r="B96" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="15"/>
-      <c r="B97" s="7" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="5"/>
+      <c r="B97" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="15"/>
-      <c r="B98" s="7" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="15"/>
-      <c r="B99" s="7" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="15"/>
-      <c r="B100" s="7" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="15"/>
-      <c r="B101" s="17" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="5"/>
+      <c r="B101" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="15"/>
-      <c r="B102" s="14"/>
-    </row>
-    <row r="103" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="18" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="18"/>
+    </row>
+    <row r="103" spans="1:2" ht="30.75" customHeight="1">
+      <c r="A103" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="20"/>
-      <c r="B104" s="19"/>
-    </row>
-    <row r="105" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="21" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="21"/>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2" ht="34">
+      <c r="A105" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B105" s="19"/>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="21" t="s">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2" ht="15" customHeight="1">
+      <c r="A106" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="21"/>
-      <c r="B107" s="16"/>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="22" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:2" ht="15" customHeight="1">
+      <c r="A108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="22"/>
-      <c r="B109" s="19"/>
+    <row r="109" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A109" s="1"/>
+      <c r="B109" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
     <mergeCell ref="A2:A77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" display="https://www.florenceandbramleyroadsurgeries.nhs.uk/appointments/opening-times/"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="38.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="51.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="23.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="36" width="15.46"/>
+    <col min="1" max="1" width="16.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="44">
       <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
@@ -4025,11 +4337,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="221">
       <c r="A2" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>247</v>
       </c>
       <c r="C2" s="36" t="s">
@@ -4048,42 +4360,41 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47"/>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="44"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="44"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="44"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="44"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="44"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="44"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="44"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="44"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="45"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="F7" s="37"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="F12" s="37"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -4091,557 +4402,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.33984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.33203125" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="77.7"/>
+    <col min="1" max="1" width="62.33203125" style="7"/>
+    <col min="2" max="2" width="77.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="12" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" ht="51">
+      <c r="A4" s="6"/>
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="12" t="s">
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="38.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:3" ht="51">
+      <c r="A7" s="6"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:3" ht="34">
+      <c r="A8" s="6"/>
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6"/>
       <c r="B11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
       <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6"/>
       <c r="B13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6"/>
       <c r="B14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" ht="29">
+      <c r="A15" s="6"/>
       <c r="B15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6"/>
       <c r="B16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6"/>
       <c r="B17" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" ht="29">
+      <c r="A18" s="6"/>
       <c r="B18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6"/>
       <c r="B19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6"/>
       <c r="B20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6"/>
       <c r="B22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6"/>
       <c r="B23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
       <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6"/>
       <c r="B25" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6"/>
       <c r="B26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6"/>
       <c r="B27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6"/>
       <c r="B28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6"/>
       <c r="B29" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" ht="29">
+      <c r="A30" s="6"/>
       <c r="B30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6"/>
       <c r="B31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6"/>
       <c r="B32" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6"/>
       <c r="B33" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6"/>
       <c r="B34" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6"/>
       <c r="B35" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6"/>
       <c r="B36" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6"/>
       <c r="B37" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6"/>
       <c r="B38" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6"/>
       <c r="B39" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6"/>
       <c r="B40" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6"/>
       <c r="B41" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6"/>
       <c r="B42" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6"/>
       <c r="B43" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6"/>
       <c r="B44" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5"/>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6"/>
       <c r="B45" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6"/>
       <c r="B46" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5"/>
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6"/>
       <c r="B47" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="123.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5"/>
-      <c r="B48" s="12" t="s">
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48" spans="1:3" ht="102">
+      <c r="A48" s="6"/>
+      <c r="B48" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5"/>
-      <c r="B50" s="12" t="s">
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50" spans="1:3" ht="17">
+      <c r="A50" s="6"/>
+      <c r="B50" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" ht="17">
+      <c r="A52" s="6"/>
       <c r="B52" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
-      <c r="B54" s="12" t="s">
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="1:3" ht="34">
+      <c r="A54" s="6"/>
+      <c r="B54" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
-      <c r="B56" s="12" t="s">
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="1:3" ht="34">
+      <c r="A56" s="6"/>
+      <c r="B56" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="6"/>
       <c r="B59" s="24"/>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5"/>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="6"/>
       <c r="B60" s="24"/>
-      <c r="C60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6"/>
       <c r="B61" s="24"/>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5"/>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="6"/>
       <c r="B64" s="24"/>
-      <c r="C64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5"/>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="6"/>
       <c r="B65" s="24"/>
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5"/>
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="6"/>
       <c r="B66" s="24"/>
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5"/>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6"/>
       <c r="B67" s="24"/>
-      <c r="C67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5"/>
+      <c r="C67" s="13"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="6"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5"/>
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="6"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5"/>
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5"/>
-      <c r="B74" s="12" t="s">
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" ht="34">
+      <c r="A74" s="6"/>
+      <c r="B74" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5"/>
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="6"/>
       <c r="B75" s="25"/>
-      <c r="C75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5"/>
-      <c r="B76" s="12" t="s">
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:3" ht="17">
+      <c r="A76" s="6"/>
+      <c r="B76" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5"/>
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="6"/>
       <c r="B77" s="30"/>
       <c r="C77" s="31"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
+    <row r="78" spans="1:3" ht="15" customHeight="1">
+      <c r="A78" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C78" s="32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
+    <row r="79" spans="1:3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
+    <row r="80" spans="1:3" ht="15" customHeight="1">
+      <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="15" t="s">
+    <row r="82" spans="1:3" ht="15" customHeight="1">
+      <c r="A82" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B82" s="23" t="s">
@@ -4651,27 +4959,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="9" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="5"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15"/>
+    <row r="84" spans="1:3" ht="32">
+      <c r="A84" s="5"/>
       <c r="B84" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15"/>
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5"/>
       <c r="B85" s="30"/>
       <c r="C85" s="31"/>
     </row>
-    <row r="86" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
+    <row r="86" spans="1:3" ht="30.75" customHeight="1">
+      <c r="A86" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B86" s="23" t="s">
@@ -4681,226 +4989,217 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15"/>
-      <c r="B87" s="12" t="s">
+    <row r="87" spans="1:3" ht="17">
+      <c r="A87" s="5"/>
+      <c r="B87" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="9"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="15"/>
-      <c r="B88" s="12" t="s">
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88" spans="1:3" ht="17">
+      <c r="A88" s="5"/>
+      <c r="B88" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="9"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="15"/>
-      <c r="B89" s="12" t="s">
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89" spans="1:3" ht="17">
+      <c r="A89" s="5"/>
+      <c r="B89" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="9"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15"/>
-      <c r="B90" s="12" t="s">
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90" spans="1:3" ht="17">
+      <c r="A90" s="5"/>
+      <c r="B90" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C90" s="9"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15"/>
-      <c r="B91" s="12" t="s">
+      <c r="C90" s="13"/>
+    </row>
+    <row r="91" spans="1:3" ht="17">
+      <c r="A91" s="5"/>
+      <c r="B91" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="9"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="15"/>
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5"/>
       <c r="B92" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C92" s="9"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15"/>
+      <c r="C92" s="13"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5"/>
       <c r="B93" s="33"/>
-      <c r="C93" s="9"/>
-    </row>
-    <row r="94" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="15"/>
+      <c r="C93" s="13"/>
+    </row>
+    <row r="94" spans="1:3" ht="32">
+      <c r="A94" s="5"/>
       <c r="B94" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C94" s="9"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="15"/>
-      <c r="B95" s="12" t="s">
+      <c r="C94" s="13"/>
+    </row>
+    <row r="95" spans="1:3" ht="17">
+      <c r="A95" s="5"/>
+      <c r="B95" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C95" s="9"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="15"/>
-      <c r="B96" s="12" t="s">
+      <c r="C95" s="13"/>
+    </row>
+    <row r="96" spans="1:3" ht="17">
+      <c r="A96" s="5"/>
+      <c r="B96" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="15"/>
-      <c r="B97" s="12" t="s">
+      <c r="C96" s="13"/>
+    </row>
+    <row r="97" spans="1:3" ht="17">
+      <c r="A97" s="5"/>
+      <c r="B97" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C97" s="9"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="15"/>
-      <c r="B98" s="12" t="s">
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98" spans="1:3" ht="17">
+      <c r="A98" s="5"/>
+      <c r="B98" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="15"/>
-      <c r="B99" s="12" t="s">
+      <c r="C98" s="13"/>
+    </row>
+    <row r="99" spans="1:3" ht="17">
+      <c r="A99" s="5"/>
+      <c r="B99" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C99" s="9"/>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="15"/>
-      <c r="B100" s="12" t="s">
+      <c r="C99" s="13"/>
+    </row>
+    <row r="100" spans="1:3" ht="17">
+      <c r="A100" s="5"/>
+      <c r="B100" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C100" s="9"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="15"/>
+      <c r="C100" s="13"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5"/>
       <c r="B101" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="9"/>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="15"/>
+      <c r="C101" s="13"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5"/>
       <c r="B102" s="30"/>
       <c r="C102" s="31"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="18" t="s">
+    <row r="103" spans="1:3" ht="15" customHeight="1">
+      <c r="A103" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C103" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="20"/>
-      <c r="B104" s="19"/>
+    <row r="104" spans="1:3">
+      <c r="A104" s="21"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="35"/>
     </row>
-    <row r="105" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="21" t="s">
+    <row r="105" spans="1:3" ht="34">
+      <c r="A105" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B105" s="19"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="31"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="21" t="s">
+    <row r="106" spans="1:3" ht="15" customHeight="1">
+      <c r="A106" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C106" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="21"/>
-      <c r="B107" s="19"/>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="3"/>
       <c r="C107" s="31"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="22" t="s">
+    <row r="108" spans="1:3" ht="15" customHeight="1">
+      <c r="A108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C108" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="22"/>
-      <c r="B109" s="19"/>
+    <row r="109" spans="1:3" ht="94.5" customHeight="1">
+      <c r="A109" s="1"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
     <mergeCell ref="A2:A77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" display="https://www.florenceandbramleyroadsurgeries.nhs.uk/appointments/opening-times/"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="28.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="58.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="37" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="23.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="36" width="15.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="36" width="10.49"/>
+    <col min="1" max="1" width="16.83203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="29" style="36" customWidth="1"/>
+    <col min="5" max="5" width="58.5" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="36" customWidth="1"/>
+    <col min="10" max="16384" width="10.5" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="44">
       <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
@@ -4929,7 +5228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="272">
       <c r="A2" s="41" t="s">
         <v>80</v>
       </c>
@@ -4952,8 +5251,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="43" t="s">
+    <row r="3" spans="1:9" ht="255">
+      <c r="C3" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="36" t="s">
@@ -4969,11 +5268,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="192.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="272">
       <c r="A4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="36" t="s">
         <v>110</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -4989,8 +5288,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="43" t="s">
+    <row r="5" spans="1:9" ht="272">
+      <c r="C5" s="36" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="36" t="s">
@@ -5006,7 +5305,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="255">
       <c r="C6" s="36" t="s">
         <v>7</v>
       </c>
@@ -5023,7 +5322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="255">
       <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
@@ -5040,7 +5339,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="255">
       <c r="C8" s="36" t="s">
         <v>9</v>
       </c>
@@ -5057,7 +5356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="255">
       <c r="C9" s="36" t="s">
         <v>10</v>
       </c>
@@ -5074,7 +5373,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="272">
       <c r="C10" s="36" t="s">
         <v>11</v>
       </c>
@@ -5091,7 +5390,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="272">
       <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
@@ -5108,7 +5407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="255">
       <c r="C12" s="36" t="s">
         <v>13</v>
       </c>
@@ -5125,7 +5424,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" ht="272">
       <c r="C13" s="36" t="s">
         <v>14</v>
       </c>
@@ -5142,7 +5441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" ht="272">
       <c r="C14" s="36" t="s">
         <v>15</v>
       </c>
@@ -5159,7 +5458,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" ht="272">
       <c r="C15" s="36" t="s">
         <v>16</v>
       </c>
@@ -5176,7 +5475,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" ht="272">
       <c r="C16" s="36" t="s">
         <v>17</v>
       </c>
@@ -5193,7 +5492,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:8" ht="255">
       <c r="C17" s="36" t="s">
         <v>18</v>
       </c>
@@ -5210,7 +5509,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:8" ht="255">
       <c r="C18" s="36" t="s">
         <v>19</v>
       </c>
@@ -5227,7 +5526,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:8" ht="255">
       <c r="C19" s="36" t="s">
         <v>20</v>
       </c>
@@ -5244,7 +5543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:8" ht="255">
       <c r="C20" s="36" t="s">
         <v>21</v>
       </c>
@@ -5261,7 +5560,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:8" ht="255">
       <c r="C21" s="36" t="s">
         <v>22</v>
       </c>
@@ -5278,7 +5577,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:8" ht="255">
       <c r="C22" s="36" t="s">
         <v>23</v>
       </c>
@@ -5295,7 +5594,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:8" ht="255">
       <c r="C23" s="36" t="s">
         <v>24</v>
       </c>
@@ -5312,7 +5611,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:8" ht="255">
       <c r="C24" s="36" t="s">
         <v>25</v>
       </c>
@@ -5329,7 +5628,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:8" ht="272">
       <c r="C25" s="36" t="s">
         <v>26</v>
       </c>
@@ -5346,7 +5645,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="3:8" ht="255">
       <c r="C26" s="36" t="s">
         <v>27</v>
       </c>
@@ -5363,7 +5662,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="3:8" ht="255">
       <c r="C27" s="36" t="s">
         <v>28</v>
       </c>
@@ -5380,7 +5679,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="3:8" ht="272">
       <c r="C28" s="36" t="s">
         <v>29</v>
       </c>
@@ -5397,7 +5696,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="3:8" ht="272">
       <c r="C29" s="36" t="s">
         <v>30</v>
       </c>
@@ -5414,7 +5713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="3:8" ht="272">
       <c r="C30" s="36" t="s">
         <v>31</v>
       </c>
@@ -5431,7 +5730,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="3:8" ht="272">
       <c r="C31" s="36" t="s">
         <v>32</v>
       </c>
@@ -5448,7 +5747,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="3:8" ht="255">
       <c r="C32" s="36" t="s">
         <v>33</v>
       </c>
@@ -5465,7 +5764,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:8" ht="272">
       <c r="C33" s="36" t="s">
         <v>34</v>
       </c>
@@ -5482,7 +5781,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:8" ht="272">
       <c r="C34" s="36" t="s">
         <v>35</v>
       </c>
@@ -5499,7 +5798,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="193.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:8" ht="272">
       <c r="C35" s="36" t="s">
         <v>36</v>
       </c>
@@ -5516,7 +5815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="193.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:8" ht="272">
       <c r="C36" s="36" t="s">
         <v>37</v>
       </c>
@@ -5533,7 +5832,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="3:8" ht="255">
       <c r="C37" s="36" t="s">
         <v>38</v>
       </c>
@@ -5550,7 +5849,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="3:8" ht="255">
       <c r="C38" s="36" t="s">
         <v>39</v>
       </c>
@@ -5567,7 +5866,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="200.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="3:8" ht="272">
       <c r="C39" s="36" t="s">
         <v>40</v>
       </c>
@@ -5584,7 +5883,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="3:8" ht="255">
       <c r="C40" s="36" t="s">
         <v>41</v>
       </c>
@@ -5601,7 +5900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="3:8" ht="255">
       <c r="C41" s="36" t="s">
         <v>42</v>
       </c>
@@ -5618,7 +5917,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="188.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="3:8" ht="255">
       <c r="C42" s="36" t="s">
         <v>43</v>
       </c>
@@ -5636,10 +5935,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -5647,30 +5945,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="33.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="36.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="37" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="23.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="23.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="36" width="10.49"/>
+    <col min="1" max="1" width="16.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="36" customWidth="1"/>
+    <col min="9" max="16384" width="10.5" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="44">
       <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
@@ -5699,7 +5994,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" customFormat="1" ht="238">
       <c r="A2" s="41" t="s">
         <v>84</v>
       </c>
@@ -5724,7 +6019,7 @@
       </c>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="238">
       <c r="C3" s="36" t="s">
         <v>187</v>
       </c>
@@ -5734,14 +6029,14 @@
       <c r="E3" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="238">
       <c r="C4" s="36" t="s">
         <v>191</v>
       </c>
@@ -5751,14 +6046,14 @@
       <c r="E4" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="238">
       <c r="C5" s="36" t="s">
         <v>193</v>
       </c>
@@ -5768,14 +6063,14 @@
       <c r="E5" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="221">
       <c r="C6" s="36" t="s">
         <v>195</v>
       </c>
@@ -5785,14 +6080,14 @@
       <c r="E6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="238">
       <c r="C7" s="36" t="s">
         <v>197</v>
       </c>
@@ -5802,14 +6097,14 @@
       <c r="E7" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="238">
       <c r="C8" s="36" t="s">
         <v>199</v>
       </c>
@@ -5819,14 +6114,14 @@
       <c r="E8" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="238">
       <c r="C9" s="36" t="s">
         <v>201</v>
       </c>
@@ -5836,14 +6131,14 @@
       <c r="E9" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="238">
       <c r="C10" s="36" t="s">
         <v>203</v>
       </c>
@@ -5853,14 +6148,14 @@
       <c r="E10" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="238">
       <c r="C11" s="36" t="s">
         <v>205</v>
       </c>
@@ -5870,14 +6165,14 @@
       <c r="E11" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="238">
       <c r="C12" s="36" t="s">
         <v>207</v>
       </c>
@@ -5887,19 +6182,17 @@
       <c r="E12" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -5907,30 +6200,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="37.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="33.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="51.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="23.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="23.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="36" width="10.49"/>
+    <col min="1" max="1" width="16.83203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="36" customWidth="1"/>
+    <col min="9" max="16384" width="10.5" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" customFormat="1" ht="44">
       <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
@@ -5959,7 +6249,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" customFormat="1" ht="221">
       <c r="A2" s="41" t="s">
         <v>86</v>
       </c>
@@ -5984,7 +6274,7 @@
       </c>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="221">
       <c r="C3" s="36" t="s">
         <v>187</v>
       </c>
@@ -5994,14 +6284,14 @@
       <c r="E3" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="221">
       <c r="C4" s="36" t="s">
         <v>191</v>
       </c>
@@ -6011,14 +6301,14 @@
       <c r="E4" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="221">
       <c r="C5" s="36" t="s">
         <v>193</v>
       </c>
@@ -6028,14 +6318,14 @@
       <c r="E5" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="221">
       <c r="C6" s="36" t="s">
         <v>195</v>
       </c>
@@ -6045,14 +6335,14 @@
       <c r="E6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="221">
       <c r="C7" s="36" t="s">
         <v>197</v>
       </c>
@@ -6062,14 +6352,14 @@
       <c r="E7" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="221">
       <c r="C8" s="36" t="s">
         <v>199</v>
       </c>
@@ -6079,14 +6369,14 @@
       <c r="E8" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="221">
       <c r="C9" s="36" t="s">
         <v>201</v>
       </c>
@@ -6096,14 +6386,14 @@
       <c r="E9" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="221">
       <c r="C10" s="36" t="s">
         <v>203</v>
       </c>
@@ -6113,14 +6403,14 @@
       <c r="E10" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="221">
       <c r="C11" s="36" t="s">
         <v>205</v>
       </c>
@@ -6130,14 +6420,14 @@
       <c r="E11" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="221">
       <c r="C12" s="36" t="s">
         <v>207</v>
       </c>
@@ -6147,7 +6437,7 @@
       <c r="E12" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H12" s="36" t="s">
@@ -6155,10 +6445,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -6166,30 +6455,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="40.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="45.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="23.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="23.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="36" width="10.49"/>
+    <col min="1" max="1" width="16.83203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="36" customWidth="1"/>
+    <col min="9" max="16384" width="10.5" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" customFormat="1" ht="44">
       <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
@@ -6218,14 +6504,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" customFormat="1" ht="221">
       <c r="A2" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -6243,7 +6529,7 @@
       </c>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="221">
       <c r="C3" s="36" t="s">
         <v>187</v>
       </c>
@@ -6253,14 +6539,14 @@
       <c r="E3" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="221">
       <c r="C4" s="36" t="s">
         <v>191</v>
       </c>
@@ -6270,14 +6556,14 @@
       <c r="E4" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="221">
       <c r="C5" s="36" t="s">
         <v>193</v>
       </c>
@@ -6287,14 +6573,14 @@
       <c r="E5" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="221">
       <c r="C6" s="36" t="s">
         <v>195</v>
       </c>
@@ -6304,14 +6590,14 @@
       <c r="E6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="221">
       <c r="C7" s="36" t="s">
         <v>197</v>
       </c>
@@ -6321,14 +6607,14 @@
       <c r="E7" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="221">
       <c r="C8" s="36" t="s">
         <v>199</v>
       </c>
@@ -6338,14 +6624,14 @@
       <c r="E8" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="221">
       <c r="C9" s="36" t="s">
         <v>201</v>
       </c>
@@ -6355,14 +6641,14 @@
       <c r="E9" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="221">
       <c r="C10" s="36" t="s">
         <v>203</v>
       </c>
@@ -6372,14 +6658,14 @@
       <c r="E10" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="221">
       <c r="C11" s="36" t="s">
         <v>205</v>
       </c>
@@ -6389,14 +6675,14 @@
       <c r="E11" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="221">
       <c r="C12" s="36" t="s">
         <v>207</v>
       </c>
@@ -6406,7 +6692,7 @@
       <c r="E12" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H12" s="36" t="s">
@@ -6414,10 +6700,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -6425,31 +6710,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="38.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="51.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="23.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="36" width="14.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="36" width="10.49"/>
+    <col min="1" max="1" width="16.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="36" customWidth="1"/>
+    <col min="10" max="16384" width="10.5" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="44">
       <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
@@ -6478,7 +6760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="340">
       <c r="A2" s="41" t="s">
         <v>89</v>
       </c>
@@ -6501,7 +6783,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="340">
+      <c r="A3" s="36"/>
       <c r="C3" s="36" t="s">
         <v>187</v>
       </c>
@@ -6511,14 +6794,15 @@
       <c r="E3" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="340">
+      <c r="A4" s="36"/>
       <c r="C4" s="36" t="s">
         <v>211</v>
       </c>
@@ -6528,14 +6812,15 @@
       <c r="E4" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="340">
+      <c r="A5" s="36"/>
       <c r="C5" s="36" t="s">
         <v>193</v>
       </c>
@@ -6545,14 +6830,15 @@
       <c r="E5" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="340">
+      <c r="A6" s="36"/>
       <c r="C6" s="36" t="s">
         <v>195</v>
       </c>
@@ -6562,14 +6848,15 @@
       <c r="E6" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="340">
+      <c r="A7" s="36"/>
       <c r="C7" s="36" t="s">
         <v>197</v>
       </c>
@@ -6579,14 +6866,15 @@
       <c r="E7" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="340">
+      <c r="A8" s="36"/>
       <c r="C8" s="36" t="s">
         <v>199</v>
       </c>
@@ -6596,14 +6884,15 @@
       <c r="E8" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="340">
+      <c r="A9" s="36"/>
       <c r="C9" s="36" t="s">
         <v>201</v>
       </c>
@@ -6613,14 +6902,15 @@
       <c r="E9" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="340">
+      <c r="A10" s="36"/>
       <c r="C10" s="36" t="s">
         <v>203</v>
       </c>
@@ -6630,14 +6920,15 @@
       <c r="E10" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="340">
+      <c r="A11" s="36"/>
       <c r="C11" s="36" t="s">
         <v>205</v>
       </c>
@@ -6647,14 +6938,15 @@
       <c r="E11" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" s="36" customFormat="true" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="340">
+      <c r="A12" s="36"/>
       <c r="C12" s="36" t="s">
         <v>207</v>
       </c>
@@ -6664,14 +6956,14 @@
       <c r="E12" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" ht="340">
       <c r="C13" s="36" t="s">
         <v>221</v>
       </c>
@@ -6681,14 +6973,14 @@
       <c r="E13" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" ht="340">
       <c r="C14" s="36" t="s">
         <v>223</v>
       </c>
@@ -6698,14 +6990,14 @@
       <c r="E14" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="241" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" ht="340">
       <c r="C15" s="36" t="s">
         <v>225</v>
       </c>
@@ -6715,14 +7007,14 @@
       <c r="E15" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" ht="340">
       <c r="C16" s="36" t="s">
         <v>227</v>
       </c>
@@ -6732,14 +7024,14 @@
       <c r="E16" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:8" ht="340">
       <c r="C17" s="36" t="s">
         <v>227</v>
       </c>
@@ -6749,14 +7041,14 @@
       <c r="E17" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:8" ht="340">
       <c r="C18" s="36" t="s">
         <v>229</v>
       </c>
@@ -6766,14 +7058,14 @@
       <c r="E18" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H18" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:8" ht="340">
       <c r="C19" s="36" t="s">
         <v>231</v>
       </c>
@@ -6783,14 +7075,14 @@
       <c r="E19" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="250.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:8" ht="340">
       <c r="C20" s="36" t="s">
         <v>231</v>
       </c>
@@ -6800,19 +7092,17 @@
       <c r="E20" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -6820,30 +7110,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="38.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="51.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="23.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="36" width="18.97"/>
+    <col min="1" max="1" width="16.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="19" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="44">
       <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
@@ -6872,7 +7159,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="388">
       <c r="A2" s="41" t="s">
         <v>90</v>
       </c>
@@ -6895,7 +7182,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="388">
       <c r="A3" s="36"/>
       <c r="C3" s="36" t="s">
         <v>187</v>
@@ -6906,14 +7193,14 @@
       <c r="E3" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="388">
       <c r="A4" s="36"/>
       <c r="C4" s="36" t="s">
         <v>191</v>
@@ -6924,14 +7211,14 @@
       <c r="E4" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="388">
       <c r="A5" s="36"/>
       <c r="C5" s="36" t="s">
         <v>193</v>
@@ -6942,14 +7229,14 @@
       <c r="E5" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="388">
       <c r="A6" s="36"/>
       <c r="C6" s="36" t="s">
         <v>195</v>
@@ -6960,14 +7247,14 @@
       <c r="E6" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="388">
       <c r="A7" s="36"/>
       <c r="C7" s="36" t="s">
         <v>197</v>
@@ -6978,14 +7265,14 @@
       <c r="E7" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="388">
       <c r="A8" s="36"/>
       <c r="C8" s="36" t="s">
         <v>199</v>
@@ -6996,14 +7283,14 @@
       <c r="E8" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="388">
       <c r="A9" s="36"/>
       <c r="C9" s="36" t="s">
         <v>201</v>
@@ -7014,14 +7301,14 @@
       <c r="E9" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="388">
       <c r="A10" s="36"/>
       <c r="C10" s="36" t="s">
         <v>203</v>
@@ -7032,14 +7319,14 @@
       <c r="E10" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="388">
       <c r="A11" s="36"/>
       <c r="C11" s="36" t="s">
         <v>205</v>
@@ -7050,14 +7337,14 @@
       <c r="E11" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="388">
       <c r="A12" s="36"/>
       <c r="C12" s="36" t="s">
         <v>207</v>
@@ -7068,7 +7355,7 @@
       <c r="E12" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H12" s="36" t="s">
@@ -7076,10 +7363,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -7087,30 +7373,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="38.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="51.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="23.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="36" width="15.46"/>
+    <col min="1" max="1" width="16.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="44">
       <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
@@ -7139,11 +7422,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="221">
       <c r="A2" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="36" t="s">
@@ -7162,8 +7445,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:9" ht="221">
+      <c r="A3" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -7175,171 +7458,153 @@
       <c r="E3" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="221">
       <c r="C4" s="36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="221">
       <c r="C5" s="36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="221">
       <c r="C6" s="36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="221">
       <c r="C7" s="36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="221">
       <c r="C8" s="36" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="221">
       <c r="C9" s="36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="221">
       <c r="C10" s="36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="221">
       <c r="C11" s="36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>190</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="163.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
